--- a/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1122,7 +1122,7 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}

--- a/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15602" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15602" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1126,7 +1126,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}rac-1:Shall use either NMDP Race extension or us-core-race {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-race' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')}eth-1:Shall use either NMDP ethnicity extension or us-core-ethnicity {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-ethnicity' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1181,10 +1181,6 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -16649,13 +16645,13 @@
         <v>74</v>
       </c>
       <c r="AI135" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AJ135" t="s" s="2">
+      <c r="AK135" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>74</v>
@@ -19424,7 +19420,7 @@
         <v>256</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>74</v>
@@ -19449,10 +19445,10 @@
         <v>238</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -20108,13 +20104,13 @@
         <v>74</v>
       </c>
       <c r="J167" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K167" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K167" t="s" s="2">
+      <c r="L167" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20177,13 +20173,13 @@
         <v>74</v>
       </c>
       <c r="AI167" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AJ167" t="s" s="2">
+      <c r="AK167" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>74</v>
@@ -22952,7 +22948,7 @@
         <v>256</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s" s="2">
         <v>74</v>
@@ -22977,10 +22973,10 @@
         <v>238</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -23617,7 +23613,7 @@
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -23636,16 +23632,16 @@
         <v>74</v>
       </c>
       <c r="J199" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K199" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K199" t="s" s="2">
+      <c r="L199" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
@@ -23707,13 +23703,13 @@
         <v>74</v>
       </c>
       <c r="AI199" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ199" t="s" s="2">
+      <c r="AK199" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK199" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>74</v>
@@ -26482,7 +26478,7 @@
         <v>256</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C225" t="s" s="2">
         <v>74</v>
@@ -26507,10 +26503,10 @@
         <v>238</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -27147,7 +27143,7 @@
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -27166,16 +27162,16 @@
         <v>74</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K231" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L231" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L231" t="s" s="2">
+      <c r="M231" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
@@ -27237,13 +27233,13 @@
         <v>74</v>
       </c>
       <c r="AI231" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ231" t="s" s="2">
+      <c r="AK231" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK231" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>74</v>
@@ -30012,7 +30008,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C257" t="s" s="2">
         <v>74</v>
@@ -30037,10 +30033,10 @@
         <v>238</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
@@ -30677,7 +30673,7 @@
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -30696,16 +30692,16 @@
         <v>74</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L263" t="s" s="2">
+      <c r="M263" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" t="s" s="2">
@@ -30767,13 +30763,13 @@
         <v>74</v>
       </c>
       <c r="AI263" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ263" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ263" t="s" s="2">
+      <c r="AK263" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK263" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL263" t="s" s="2">
         <v>74</v>
@@ -33542,7 +33538,7 @@
         <v>256</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C289" t="s" s="2">
         <v>74</v>
@@ -33567,10 +33563,10 @@
         <v>238</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -34207,7 +34203,7 @@
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -34226,16 +34222,16 @@
         <v>74</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L295" t="s" s="2">
+      <c r="M295" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M295" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" t="s" s="2">
@@ -34297,13 +34293,13 @@
         <v>74</v>
       </c>
       <c r="AI295" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ295" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ295" t="s" s="2">
+      <c r="AK295" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK295" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL295" t="s" s="2">
         <v>74</v>
@@ -37072,7 +37068,7 @@
         <v>256</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C321" t="s" s="2">
         <v>74</v>
@@ -37097,10 +37093,10 @@
         <v>238</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -37737,7 +37733,7 @@
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -37756,16 +37752,16 @@
         <v>74</v>
       </c>
       <c r="J327" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K327" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K327" t="s" s="2">
+      <c r="L327" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L327" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="M327" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" t="s" s="2">
@@ -37827,13 +37823,13 @@
         <v>74</v>
       </c>
       <c r="AI327" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AJ327" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK327" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK327" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL327" t="s" s="2">
         <v>74</v>
@@ -40602,7 +40598,7 @@
         <v>256</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C353" t="s" s="2">
         <v>74</v>
@@ -40627,10 +40623,10 @@
         <v>238</v>
       </c>
       <c r="K353" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L353" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L353" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -41267,7 +41263,7 @@
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -41286,16 +41282,16 @@
         <v>74</v>
       </c>
       <c r="J359" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K359" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K359" t="s" s="2">
+      <c r="L359" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L359" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="M359" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" t="s" s="2">
@@ -41357,13 +41353,13 @@
         <v>74</v>
       </c>
       <c r="AI359" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AJ359" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK359" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK359" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL359" t="s" s="2">
         <v>74</v>
@@ -44132,7 +44128,7 @@
         <v>256</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C385" t="s" s="2">
         <v>74</v>
@@ -44157,10 +44153,10 @@
         <v>238</v>
       </c>
       <c r="K385" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L385" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L385" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
@@ -44816,13 +44812,13 @@
         <v>74</v>
       </c>
       <c r="J391" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K391" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K391" t="s" s="2">
+      <c r="L391" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L391" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
@@ -44885,13 +44881,13 @@
         <v>74</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="AJ391" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL391" t="s" s="2">
         <v>74</v>
@@ -47660,7 +47656,7 @@
         <v>256</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C417" t="s" s="2">
         <v>74</v>
@@ -47685,10 +47681,10 @@
         <v>238</v>
       </c>
       <c r="K417" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L417" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L417" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
@@ -48325,7 +48321,7 @@
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -48344,16 +48340,16 @@
         <v>74</v>
       </c>
       <c r="J423" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K423" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="K423" t="s" s="2">
+      <c r="L423" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L423" t="s" s="2">
+      <c r="M423" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M423" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N423" s="2"/>
       <c r="O423" t="s" s="2">
@@ -48415,13 +48411,13 @@
         <v>74</v>
       </c>
       <c r="AI423" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ423" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ423" t="s" s="2">
+      <c r="AK423" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK423" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL423" t="s" s="2">
         <v>74</v>
@@ -51187,7 +51183,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" t="s" s="2">
@@ -51210,19 +51206,19 @@
         <v>83</v>
       </c>
       <c r="J449" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K449" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K449" t="s" s="2">
+      <c r="L449" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L449" t="s" s="2">
+      <c r="M449" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M449" t="s" s="2">
+      <c r="N449" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N449" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O449" t="s" s="2">
         <v>74</v>
@@ -51271,7 +51267,7 @@
         <v>74</v>
       </c>
       <c r="AE449" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF449" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16051" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16051" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1393,12 +1393,6 @@
     <t>msCoordinator</t>
   </si>
   <si>
-    <t>Search Coordinator for Patient needing transplant</t>
-  </si>
-  <si>
-    <t>The Search Coordinator for the MatchSync patient (required element).</t>
-  </si>
-  <si>
     <t>Bundle.entry:msCoordinator.id</t>
   </si>
   <si>
@@ -1415,22 +1409,6 @@
   </si>
   <si>
     <t>Bundle.entry:msCoordinator.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practitioner {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/transplantcentercoordinator}
-</t>
-  </si>
-  <si>
-    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
-  </si>
-  <si>
-    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
-  </si>
-  <si>
-    <t>PRD (as one example)</t>
-  </si>
-  <si>
-    <t>Role</t>
   </si>
   <si>
     <t>Bundle.entry:msCoordinator.search</t>
@@ -17487,10 +17465,10 @@
         <v>248</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>442</v>
+        <v>268</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>443</v>
+        <v>269</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17570,7 +17548,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>273</v>
@@ -17682,7 +17660,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>274</v>
@@ -17796,7 +17774,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>275</v>
@@ -17912,7 +17890,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>276</v>
@@ -18024,7 +18002,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>279</v>
@@ -18138,7 +18116,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>283</v>
@@ -18161,16 +18139,16 @@
         <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>450</v>
+        <v>284</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>451</v>
+        <v>285</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>452</v>
+        <v>286</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18233,13 +18211,13 @@
         <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>453</v>
+        <v>75</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>454</v>
+        <v>75</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -18250,7 +18228,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>287</v>
@@ -18362,7 +18340,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>291</v>
@@ -18474,7 +18452,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>292</v>
@@ -18588,7 +18566,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>293</v>
@@ -18704,7 +18682,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>294</v>
@@ -18818,7 +18796,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>300</v>
@@ -18932,7 +18910,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>305</v>
@@ -19044,7 +19022,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>309</v>
@@ -19156,7 +19134,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>310</v>
@@ -19270,7 +19248,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>311</v>
@@ -19386,7 +19364,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>312</v>
@@ -19498,7 +19476,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>317</v>
@@ -19612,7 +19590,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>321</v>
@@ -19724,7 +19702,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>324</v>
@@ -19836,7 +19814,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>326</v>
@@ -19948,7 +19926,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>329</v>
@@ -20060,7 +20038,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>332</v>
@@ -20172,7 +20150,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>336</v>
@@ -20284,7 +20262,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>337</v>
@@ -20398,7 +20376,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>338</v>
@@ -20514,7 +20492,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>339</v>
@@ -20626,7 +20604,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>342</v>
@@ -20738,7 +20716,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>345</v>
@@ -20852,7 +20830,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>349</v>
@@ -20966,7 +20944,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>353</v>
@@ -21080,13 +21058,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>75</v>
@@ -21111,10 +21089,10 @@
         <v>248</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21194,7 +21172,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>273</v>
@@ -21306,7 +21284,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>274</v>
@@ -21420,7 +21398,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>275</v>
@@ -21536,7 +21514,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>276</v>
@@ -21648,7 +21626,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>279</v>
@@ -21762,7 +21740,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>283</v>
@@ -21788,13 +21766,13 @@
         <v>75</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21857,13 +21835,13 @@
         <v>75</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -21874,7 +21852,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>287</v>
@@ -21986,7 +21964,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>291</v>
@@ -22098,7 +22076,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>292</v>
@@ -22212,7 +22190,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>293</v>
@@ -22328,7 +22306,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>294</v>
@@ -22442,7 +22420,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>300</v>
@@ -22556,7 +22534,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>305</v>
@@ -22668,7 +22646,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>309</v>
@@ -22780,7 +22758,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>310</v>
@@ -22894,7 +22872,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>311</v>
@@ -23010,7 +22988,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>312</v>
@@ -23122,7 +23100,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>317</v>
@@ -23236,7 +23214,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>321</v>
@@ -23348,7 +23326,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>324</v>
@@ -23460,7 +23438,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>326</v>
@@ -23572,7 +23550,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>329</v>
@@ -23684,7 +23662,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>332</v>
@@ -23796,7 +23774,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>336</v>
@@ -23908,7 +23886,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>337</v>
@@ -24022,7 +24000,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>338</v>
@@ -24138,7 +24116,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>339</v>
@@ -24250,7 +24228,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>342</v>
@@ -24362,7 +24340,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>345</v>
@@ -24476,7 +24454,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>349</v>
@@ -24590,7 +24568,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>353</v>
@@ -24704,13 +24682,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>75</v>
@@ -24735,10 +24713,10 @@
         <v>248</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -24818,7 +24796,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>273</v>
@@ -24930,7 +24908,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>274</v>
@@ -25044,7 +25022,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>275</v>
@@ -25160,7 +25138,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>276</v>
@@ -25272,7 +25250,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>279</v>
@@ -25386,14 +25364,14 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
@@ -25412,16 +25390,16 @@
         <v>75</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
@@ -25483,13 +25461,13 @@
         <v>75</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>75</v>
@@ -25500,7 +25478,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>287</v>
@@ -25612,7 +25590,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>291</v>
@@ -25724,7 +25702,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>292</v>
@@ -25838,7 +25816,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>293</v>
@@ -25954,7 +25932,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>294</v>
@@ -26068,7 +26046,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>300</v>
@@ -26182,7 +26160,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>305</v>
@@ -26294,7 +26272,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>309</v>
@@ -26406,7 +26384,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>310</v>
@@ -26520,7 +26498,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>311</v>
@@ -26636,7 +26614,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>312</v>
@@ -26748,7 +26726,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>317</v>
@@ -26862,7 +26840,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>321</v>
@@ -26974,7 +26952,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>324</v>
@@ -27086,7 +27064,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>326</v>
@@ -27198,7 +27176,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>329</v>
@@ -27310,7 +27288,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>332</v>
@@ -27422,7 +27400,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>336</v>
@@ -27534,7 +27512,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>337</v>
@@ -27648,7 +27626,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>338</v>
@@ -27764,7 +27742,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>339</v>
@@ -27876,7 +27854,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>342</v>
@@ -27988,7 +27966,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>345</v>
@@ -28102,7 +28080,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>349</v>
@@ -28216,7 +28194,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>353</v>
@@ -28330,13 +28308,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>75</v>
@@ -28361,10 +28339,10 @@
         <v>248</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -28444,7 +28422,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>273</v>
@@ -28556,7 +28534,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>274</v>
@@ -28670,7 +28648,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>275</v>
@@ -28786,7 +28764,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>276</v>
@@ -28898,7 +28876,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>279</v>
@@ -29012,14 +28990,14 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
@@ -29038,16 +29016,16 @@
         <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -29109,13 +29087,13 @@
         <v>75</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>75</v>
@@ -29126,7 +29104,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>287</v>
@@ -29238,7 +29216,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>291</v>
@@ -29350,7 +29328,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>292</v>
@@ -29464,7 +29442,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>293</v>
@@ -29580,7 +29558,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>294</v>
@@ -29694,7 +29672,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>300</v>
@@ -29808,7 +29786,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>305</v>
@@ -29920,7 +29898,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>309</v>
@@ -30032,7 +30010,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>310</v>
@@ -30146,7 +30124,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>311</v>
@@ -30262,7 +30240,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>312</v>
@@ -30374,7 +30352,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>317</v>
@@ -30488,7 +30466,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>321</v>
@@ -30600,7 +30578,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>324</v>
@@ -30712,7 +30690,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>326</v>
@@ -30824,7 +30802,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>329</v>
@@ -30936,7 +30914,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>332</v>
@@ -31048,7 +31026,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>336</v>
@@ -31160,7 +31138,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>337</v>
@@ -31274,7 +31252,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>338</v>
@@ -31390,7 +31368,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>339</v>
@@ -31502,7 +31480,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>342</v>
@@ -31614,7 +31592,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>345</v>
@@ -31728,7 +31706,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>349</v>
@@ -31842,7 +31820,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>353</v>
@@ -31956,13 +31934,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>75</v>
@@ -31987,10 +31965,10 @@
         <v>248</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -32070,7 +32048,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>273</v>
@@ -32182,7 +32160,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>274</v>
@@ -32296,7 +32274,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>275</v>
@@ -32412,7 +32390,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>276</v>
@@ -32524,7 +32502,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>279</v>
@@ -32638,14 +32616,14 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -32664,16 +32642,16 @@
         <v>75</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -32735,13 +32713,13 @@
         <v>75</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>75</v>
@@ -32752,7 +32730,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>287</v>
@@ -32864,7 +32842,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>291</v>
@@ -32976,7 +32954,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>292</v>
@@ -33090,7 +33068,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>293</v>
@@ -33206,7 +33184,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>294</v>
@@ -33320,7 +33298,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>300</v>
@@ -33434,7 +33412,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>305</v>
@@ -33546,7 +33524,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>309</v>
@@ -33658,7 +33636,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>310</v>
@@ -33772,7 +33750,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>311</v>
@@ -33888,7 +33866,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>312</v>
@@ -34000,7 +33978,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>317</v>
@@ -34114,7 +34092,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>321</v>
@@ -34226,7 +34204,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>324</v>
@@ -34338,7 +34316,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>326</v>
@@ -34450,7 +34428,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>329</v>
@@ -34562,7 +34540,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>332</v>
@@ -34674,7 +34652,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>336</v>
@@ -34786,7 +34764,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>337</v>
@@ -34900,7 +34878,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>338</v>
@@ -35016,7 +34994,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>339</v>
@@ -35128,7 +35106,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>342</v>
@@ -35240,7 +35218,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>345</v>
@@ -35354,7 +35332,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>349</v>
@@ -35468,7 +35446,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>353</v>
@@ -35582,13 +35560,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>75</v>
@@ -35613,10 +35591,10 @@
         <v>248</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -35696,7 +35674,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>273</v>
@@ -35808,7 +35786,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>274</v>
@@ -35922,7 +35900,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>275</v>
@@ -36038,7 +36016,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>276</v>
@@ -36150,7 +36128,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>279</v>
@@ -36264,14 +36242,14 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36290,16 +36268,16 @@
         <v>75</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
@@ -36361,13 +36339,13 @@
         <v>75</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>75</v>
@@ -36378,7 +36356,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>287</v>
@@ -36490,7 +36468,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>291</v>
@@ -36602,7 +36580,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>292</v>
@@ -36716,7 +36694,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>293</v>
@@ -36832,7 +36810,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>294</v>
@@ -36946,7 +36924,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>300</v>
@@ -37060,7 +37038,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>305</v>
@@ -37172,7 +37150,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>309</v>
@@ -37284,7 +37262,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>310</v>
@@ -37398,7 +37376,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>311</v>
@@ -37514,7 +37492,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>312</v>
@@ -37626,7 +37604,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>317</v>
@@ -37740,7 +37718,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>321</v>
@@ -37852,7 +37830,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>324</v>
@@ -37964,7 +37942,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>326</v>
@@ -38076,7 +38054,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>329</v>
@@ -38188,7 +38166,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>332</v>
@@ -38300,7 +38278,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>336</v>
@@ -38412,7 +38390,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>337</v>
@@ -38526,7 +38504,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>338</v>
@@ -38642,7 +38620,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>339</v>
@@ -38754,7 +38732,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>342</v>
@@ -38866,7 +38844,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>345</v>
@@ -38980,7 +38958,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>349</v>
@@ -39094,7 +39072,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>353</v>
@@ -39208,13 +39186,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>75</v>
@@ -39239,10 +39217,10 @@
         <v>248</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -39322,7 +39300,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>273</v>
@@ -39434,7 +39412,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>274</v>
@@ -39548,7 +39526,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>275</v>
@@ -39664,7 +39642,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>276</v>
@@ -39776,7 +39754,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>279</v>
@@ -39890,14 +39868,14 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -39916,16 +39894,16 @@
         <v>75</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -39987,13 +39965,13 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>75</v>
@@ -40004,7 +39982,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>287</v>
@@ -40116,7 +40094,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>291</v>
@@ -40228,7 +40206,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>292</v>
@@ -40342,7 +40320,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>293</v>
@@ -40458,7 +40436,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>294</v>
@@ -40572,7 +40550,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>300</v>
@@ -40686,7 +40664,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>305</v>
@@ -40798,7 +40776,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>309</v>
@@ -40910,7 +40888,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>310</v>
@@ -41024,7 +41002,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>311</v>
@@ -41140,7 +41118,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>312</v>
@@ -41252,7 +41230,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>317</v>
@@ -41366,7 +41344,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>321</v>
@@ -41478,7 +41456,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>324</v>
@@ -41590,7 +41568,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>326</v>
@@ -41702,7 +41680,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>329</v>
@@ -41814,7 +41792,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>332</v>
@@ -41926,7 +41904,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>336</v>
@@ -42038,7 +42016,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>337</v>
@@ -42152,7 +42130,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>338</v>
@@ -42268,7 +42246,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>339</v>
@@ -42380,7 +42358,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>342</v>
@@ -42492,7 +42470,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>345</v>
@@ -42606,7 +42584,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>349</v>
@@ -42720,7 +42698,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>353</v>
@@ -42834,13 +42812,13 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>75</v>
@@ -42865,10 +42843,10 @@
         <v>248</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -42948,7 +42926,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>273</v>
@@ -43060,7 +43038,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>274</v>
@@ -43174,7 +43152,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>275</v>
@@ -43290,7 +43268,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>276</v>
@@ -43402,7 +43380,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>279</v>
@@ -43516,14 +43494,14 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" t="s" s="2">
@@ -43542,16 +43520,16 @@
         <v>75</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43613,13 +43591,13 @@
         <v>75</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>75</v>
@@ -43630,7 +43608,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>287</v>
@@ -43742,7 +43720,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>291</v>
@@ -43854,7 +43832,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>292</v>
@@ -43968,7 +43946,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>293</v>
@@ -44084,7 +44062,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>294</v>
@@ -44198,7 +44176,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>300</v>
@@ -44312,7 +44290,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>305</v>
@@ -44424,7 +44402,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>309</v>
@@ -44536,7 +44514,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>310</v>
@@ -44650,7 +44628,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>311</v>
@@ -44766,7 +44744,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>312</v>
@@ -44878,7 +44856,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>317</v>
@@ -44992,7 +44970,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>321</v>
@@ -45104,7 +45082,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>324</v>
@@ -45216,7 +45194,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>326</v>
@@ -45328,7 +45306,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>329</v>
@@ -45440,7 +45418,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>332</v>
@@ -45552,7 +45530,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>336</v>
@@ -45664,7 +45642,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>337</v>
@@ -45778,7 +45756,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>338</v>
@@ -45894,7 +45872,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>339</v>
@@ -46006,7 +45984,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>342</v>
@@ -46118,7 +46096,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>345</v>
@@ -46232,7 +46210,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>349</v>
@@ -46346,7 +46324,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>353</v>
@@ -46460,13 +46438,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>75</v>
@@ -46491,10 +46469,10 @@
         <v>248</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
@@ -46574,7 +46552,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>273</v>
@@ -46686,7 +46664,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>274</v>
@@ -46800,7 +46778,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>275</v>
@@ -46916,7 +46894,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>276</v>
@@ -47028,7 +47006,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>279</v>
@@ -47142,7 +47120,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>283</v>
@@ -47168,13 +47146,13 @@
         <v>75</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
@@ -47243,7 +47221,7 @@
         <v>75</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>75</v>
@@ -47254,7 +47232,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>287</v>
@@ -47366,7 +47344,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>291</v>
@@ -47478,7 +47456,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>292</v>
@@ -47592,7 +47570,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>293</v>
@@ -47708,7 +47686,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>294</v>
@@ -47822,7 +47800,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>300</v>
@@ -47936,7 +47914,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>305</v>
@@ -48048,7 +48026,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>309</v>
@@ -48160,7 +48138,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>310</v>
@@ -48274,7 +48252,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>311</v>
@@ -48390,7 +48368,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>312</v>
@@ -48502,7 +48480,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>317</v>
@@ -48616,7 +48594,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>321</v>
@@ -48728,7 +48706,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>324</v>
@@ -48840,7 +48818,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>326</v>
@@ -48952,7 +48930,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>329</v>
@@ -49064,7 +49042,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>332</v>
@@ -49176,7 +49154,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>336</v>
@@ -49288,7 +49266,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>337</v>
@@ -49402,7 +49380,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>338</v>
@@ -49518,7 +49496,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>339</v>
@@ -49630,7 +49608,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>342</v>
@@ -49742,7 +49720,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>345</v>
@@ -49856,7 +49834,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>349</v>
@@ -49970,7 +49948,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>353</v>
@@ -50084,13 +50062,13 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>75</v>
@@ -50115,10 +50093,10 @@
         <v>248</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -50198,7 +50176,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>273</v>
@@ -50310,7 +50288,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>274</v>
@@ -50424,7 +50402,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>275</v>
@@ -50540,7 +50518,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>276</v>
@@ -50652,7 +50630,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>279</v>
@@ -50766,14 +50744,14 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" t="s" s="2">
@@ -50792,16 +50770,16 @@
         <v>75</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
@@ -50863,13 +50841,13 @@
         <v>75</v>
       </c>
       <c r="AJ423" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL423" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM423" t="s" s="2">
         <v>75</v>
@@ -50880,7 +50858,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>287</v>
@@ -50992,7 +50970,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>291</v>
@@ -51104,7 +51082,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>292</v>
@@ -51218,7 +51196,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>293</v>
@@ -51334,7 +51312,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>294</v>
@@ -51448,7 +51426,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>300</v>
@@ -51562,7 +51540,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>305</v>
@@ -51674,7 +51652,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>309</v>
@@ -51786,7 +51764,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>310</v>
@@ -51900,7 +51878,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>311</v>
@@ -52016,7 +51994,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>312</v>
@@ -52128,7 +52106,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>317</v>
@@ -52242,7 +52220,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>321</v>
@@ -52354,7 +52332,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>324</v>
@@ -52466,7 +52444,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>326</v>
@@ -52578,7 +52556,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>329</v>
@@ -52690,7 +52668,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>332</v>
@@ -52802,7 +52780,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>336</v>
@@ -52914,7 +52892,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>337</v>
@@ -53028,7 +53006,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>338</v>
@@ -53144,7 +53122,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>339</v>
@@ -53256,7 +53234,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>342</v>
@@ -53368,7 +53346,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>345</v>
@@ -53482,7 +53460,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>349</v>
@@ -53596,7 +53574,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>353</v>
@@ -53710,10 +53688,10 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" t="s" s="2">
@@ -53736,19 +53714,19 @@
         <v>85</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="N449" t="s" s="2">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="O449" t="s" s="2">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="P449" t="s" s="2">
         <v>75</v>
@@ -53797,7 +53775,7 @@
         <v>75</v>
       </c>
       <c r="AF449" t="s" s="2">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="AG449" t="s" s="2">
         <v>76</v>

--- a/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$449</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$481</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16051" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17191" uniqueCount="869">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -851,7 +851,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>4</t>
+    <t>3</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -1387,103 +1387,240 @@
     <t>Bundle.entry:msDiagnosis.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:msCoordinator</t>
-  </si>
-  <si>
-    <t>msCoordinator</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.resource</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.outcome</t>
+    <t>Bundle.entry:msPractitionerRole</t>
+  </si>
+  <si>
+    <t>msPractitionerRole</t>
+  </si>
+  <si>
+    <t>Practitioner Role for the MacthSync patient needing transplant</t>
+  </si>
+  <si>
+    <t>Practitioner Role for the MatchSync patient.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PractitionerRole {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/nmdp-practitioner-role}
+</t>
+  </si>
+  <si>
+    <t>Roles/organizations the practitioner is associated with</t>
+  </si>
+  <si>
+    <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
+  </si>
+  <si>
+    <t>PRD (as one example)</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner</t>
+  </si>
+  <si>
+    <t>msPractitioner</t>
+  </si>
+  <si>
+    <t>Practitioner  for the MacthSync patient needing transplant</t>
+  </si>
+  <si>
+    <t>Practitioner for the MatchSync patient.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practitioner {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/nmdp-practitioner}
+</t>
+  </si>
+  <si>
+    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
+  </si>
+  <si>
+    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:msOrgTransplantCenter</t>
@@ -2862,7 +2999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN449"/>
+  <dimension ref="A1:AN481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -17447,10 +17584,10 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>85</v>
@@ -17465,10 +17602,10 @@
         <v>248</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>268</v>
+        <v>442</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>269</v>
+        <v>443</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17548,7 +17685,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>273</v>
@@ -17660,7 +17797,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>274</v>
@@ -17774,7 +17911,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>275</v>
@@ -17890,7 +18027,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>276</v>
@@ -18002,7 +18139,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>279</v>
@@ -18116,7 +18253,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>283</v>
@@ -18139,16 +18276,16 @@
         <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>284</v>
+        <v>450</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>285</v>
+        <v>451</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>286</v>
+        <v>452</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18211,13 +18348,13 @@
         <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>75</v>
+        <v>453</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>75</v>
+        <v>454</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -18228,7 +18365,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>287</v>
@@ -18340,7 +18477,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>291</v>
@@ -18452,7 +18589,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>292</v>
@@ -18566,7 +18703,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>293</v>
@@ -18682,7 +18819,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>294</v>
@@ -18796,7 +18933,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>300</v>
@@ -18910,7 +19047,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>305</v>
@@ -19022,7 +19159,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>309</v>
@@ -19134,7 +19271,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>310</v>
@@ -19248,7 +19385,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>311</v>
@@ -19364,7 +19501,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>312</v>
@@ -19476,7 +19613,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>317</v>
@@ -19590,7 +19727,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>321</v>
@@ -19702,7 +19839,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>324</v>
@@ -19814,7 +19951,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>326</v>
@@ -19926,7 +20063,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>329</v>
@@ -20038,7 +20175,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>332</v>
@@ -20150,7 +20287,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>336</v>
@@ -20262,7 +20399,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>337</v>
@@ -20376,7 +20513,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>338</v>
@@ -20492,7 +20629,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>339</v>
@@ -20604,7 +20741,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>342</v>
@@ -20716,7 +20853,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>345</v>
@@ -20830,7 +20967,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>349</v>
@@ -20944,7 +21081,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>353</v>
@@ -21058,13 +21195,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>75</v>
@@ -21074,7 +21211,7 @@
         <v>76</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>85</v>
@@ -21089,10 +21226,10 @@
         <v>248</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21172,7 +21309,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>273</v>
@@ -21284,7 +21421,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>274</v>
@@ -21398,7 +21535,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>275</v>
@@ -21514,7 +21651,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>276</v>
@@ -21626,7 +21763,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>279</v>
@@ -21740,7 +21877,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>283</v>
@@ -21766,13 +21903,13 @@
         <v>75</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21835,13 +21972,13 @@
         <v>75</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>485</v>
+        <v>371</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -21852,7 +21989,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>287</v>
@@ -21964,7 +22101,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>291</v>
@@ -22076,7 +22213,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>292</v>
@@ -22190,7 +22327,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>293</v>
@@ -22306,7 +22443,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>294</v>
@@ -22420,7 +22557,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>300</v>
@@ -22534,7 +22671,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>305</v>
@@ -22646,7 +22783,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>309</v>
@@ -22758,7 +22895,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>310</v>
@@ -22872,7 +23009,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>311</v>
@@ -22988,7 +23125,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>312</v>
@@ -23100,7 +23237,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>317</v>
@@ -23214,7 +23351,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>321</v>
@@ -23326,7 +23463,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>324</v>
@@ -23438,7 +23575,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>326</v>
@@ -23550,7 +23687,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>329</v>
@@ -23662,7 +23799,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>332</v>
@@ -23774,7 +23911,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>336</v>
@@ -23886,7 +24023,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>337</v>
@@ -24000,7 +24137,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>338</v>
@@ -24116,7 +24253,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>339</v>
@@ -24228,7 +24365,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>342</v>
@@ -24340,7 +24477,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>345</v>
@@ -24454,7 +24591,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>349</v>
@@ -24568,7 +24705,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>353</v>
@@ -24682,13 +24819,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>75</v>
@@ -24713,10 +24850,10 @@
         <v>248</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -24796,7 +24933,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>273</v>
@@ -24908,7 +25045,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>274</v>
@@ -25022,7 +25159,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>275</v>
@@ -25138,7 +25275,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>276</v>
@@ -25250,7 +25387,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>279</v>
@@ -25364,14 +25501,14 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>523</v>
+        <v>75</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
@@ -25390,17 +25527,15 @@
         <v>75</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
         <v>75</v>
@@ -25461,13 +25596,13 @@
         <v>75</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>75</v>
@@ -25478,7 +25613,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>287</v>
@@ -25590,7 +25725,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>291</v>
@@ -25702,7 +25837,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>292</v>
@@ -25816,7 +25951,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>293</v>
@@ -25932,7 +26067,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>294</v>
@@ -26046,7 +26181,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>300</v>
@@ -26160,7 +26295,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>305</v>
@@ -26272,7 +26407,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>309</v>
@@ -26384,7 +26519,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>310</v>
@@ -26498,7 +26633,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>311</v>
@@ -26614,7 +26749,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>312</v>
@@ -26726,7 +26861,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>317</v>
@@ -26840,7 +26975,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>321</v>
@@ -26952,7 +27087,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>324</v>
@@ -27064,7 +27199,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>326</v>
@@ -27176,7 +27311,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>329</v>
@@ -27288,7 +27423,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>332</v>
@@ -27400,7 +27535,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>336</v>
@@ -27512,7 +27647,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>337</v>
@@ -27626,7 +27761,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>338</v>
@@ -27742,7 +27877,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>339</v>
@@ -27854,7 +27989,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>342</v>
@@ -27966,7 +28101,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>345</v>
@@ -28080,7 +28215,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>349</v>
@@ -28194,7 +28329,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>353</v>
@@ -28308,13 +28443,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>75</v>
@@ -28339,10 +28474,10 @@
         <v>248</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -28422,7 +28557,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>273</v>
@@ -28534,7 +28669,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>274</v>
@@ -28648,7 +28783,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>275</v>
@@ -28764,7 +28899,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>276</v>
@@ -28790,7 +28925,7 @@
         <v>85</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L229" t="s" s="2">
         <v>277</v>
@@ -28876,7 +29011,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>279</v>
@@ -28990,14 +29125,14 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
@@ -29016,16 +29151,16 @@
         <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -29087,13 +29222,13 @@
         <v>75</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>75</v>
@@ -29104,7 +29239,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>287</v>
@@ -29216,7 +29351,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>291</v>
@@ -29328,7 +29463,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>292</v>
@@ -29442,7 +29577,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>293</v>
@@ -29558,7 +29693,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>294</v>
@@ -29672,7 +29807,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>300</v>
@@ -29786,7 +29921,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>305</v>
@@ -29898,7 +30033,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>309</v>
@@ -30010,7 +30145,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>310</v>
@@ -30124,7 +30259,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>311</v>
@@ -30240,7 +30375,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>312</v>
@@ -30352,7 +30487,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>317</v>
@@ -30466,7 +30601,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>321</v>
@@ -30578,7 +30713,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>324</v>
@@ -30690,7 +30825,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>326</v>
@@ -30802,7 +30937,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>329</v>
@@ -30914,7 +31049,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>332</v>
@@ -31026,7 +31161,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>336</v>
@@ -31138,7 +31273,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>337</v>
@@ -31252,7 +31387,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>338</v>
@@ -31368,7 +31503,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>339</v>
@@ -31480,7 +31615,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>342</v>
@@ -31592,7 +31727,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>345</v>
@@ -31706,7 +31841,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>349</v>
@@ -31820,7 +31955,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>353</v>
@@ -31934,13 +32069,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>75</v>
@@ -31965,10 +32100,10 @@
         <v>248</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -32048,7 +32183,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>273</v>
@@ -32160,7 +32295,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>274</v>
@@ -32274,7 +32409,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>275</v>
@@ -32390,7 +32525,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>276</v>
@@ -32502,7 +32637,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>279</v>
@@ -32616,14 +32751,14 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -32642,16 +32777,16 @@
         <v>75</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -32713,13 +32848,13 @@
         <v>75</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>75</v>
@@ -32730,7 +32865,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>287</v>
@@ -32842,7 +32977,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>291</v>
@@ -32954,7 +33089,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>292</v>
@@ -33068,7 +33203,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>293</v>
@@ -33184,7 +33319,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>294</v>
@@ -33298,7 +33433,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>300</v>
@@ -33412,7 +33547,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>305</v>
@@ -33524,7 +33659,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>309</v>
@@ -33636,7 +33771,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>310</v>
@@ -33750,7 +33885,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>311</v>
@@ -33866,7 +34001,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>312</v>
@@ -33978,7 +34113,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>317</v>
@@ -34092,7 +34227,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>321</v>
@@ -34204,7 +34339,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>324</v>
@@ -34316,7 +34451,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>326</v>
@@ -34428,7 +34563,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>329</v>
@@ -34540,7 +34675,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>332</v>
@@ -34652,7 +34787,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>336</v>
@@ -34764,7 +34899,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>337</v>
@@ -34878,7 +35013,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>338</v>
@@ -34994,7 +35129,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>339</v>
@@ -35106,7 +35241,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>342</v>
@@ -35218,7 +35353,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>345</v>
@@ -35332,7 +35467,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>349</v>
@@ -35446,7 +35581,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>353</v>
@@ -35560,13 +35695,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>75</v>
@@ -35591,10 +35726,10 @@
         <v>248</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -35674,7 +35809,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>273</v>
@@ -35786,7 +35921,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>274</v>
@@ -35900,7 +36035,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>275</v>
@@ -36016,7 +36151,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>276</v>
@@ -36128,7 +36263,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>279</v>
@@ -36242,14 +36377,14 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36268,16 +36403,16 @@
         <v>75</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
@@ -36339,13 +36474,13 @@
         <v>75</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>75</v>
@@ -36356,7 +36491,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>287</v>
@@ -36468,7 +36603,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>291</v>
@@ -36580,7 +36715,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>292</v>
@@ -36694,7 +36829,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>293</v>
@@ -36810,7 +36945,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>294</v>
@@ -36924,7 +37059,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>300</v>
@@ -37038,7 +37173,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>305</v>
@@ -37150,7 +37285,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>309</v>
@@ -37262,7 +37397,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>310</v>
@@ -37376,7 +37511,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>311</v>
@@ -37492,7 +37627,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>312</v>
@@ -37604,7 +37739,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>317</v>
@@ -37718,7 +37853,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>321</v>
@@ -37830,7 +37965,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>324</v>
@@ -37942,7 +38077,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>326</v>
@@ -38054,7 +38189,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>329</v>
@@ -38166,7 +38301,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>332</v>
@@ -38278,7 +38413,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>336</v>
@@ -38390,7 +38525,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>337</v>
@@ -38504,7 +38639,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>338</v>
@@ -38620,7 +38755,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>339</v>
@@ -38732,7 +38867,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>342</v>
@@ -38844,7 +38979,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>345</v>
@@ -38958,7 +39093,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>349</v>
@@ -39072,7 +39207,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>353</v>
@@ -39186,13 +39321,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>75</v>
@@ -39217,10 +39352,10 @@
         <v>248</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -39300,7 +39435,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>273</v>
@@ -39412,7 +39547,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>274</v>
@@ -39526,7 +39661,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>275</v>
@@ -39642,7 +39777,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>276</v>
@@ -39754,7 +39889,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>279</v>
@@ -39868,14 +40003,14 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -39894,16 +40029,16 @@
         <v>75</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>674</v>
+        <v>570</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>675</v>
+        <v>571</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -39965,13 +40100,13 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>676</v>
+        <v>573</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>75</v>
@@ -39982,7 +40117,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>287</v>
@@ -40094,7 +40229,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>291</v>
@@ -40206,7 +40341,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>292</v>
@@ -40320,7 +40455,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>293</v>
@@ -40436,7 +40571,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>294</v>
@@ -40550,7 +40685,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>300</v>
@@ -40664,7 +40799,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>305</v>
@@ -40776,7 +40911,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>309</v>
@@ -40888,7 +41023,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>310</v>
@@ -41002,7 +41137,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>311</v>
@@ -41118,7 +41253,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>312</v>
@@ -41230,7 +41365,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>317</v>
@@ -41344,7 +41479,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>321</v>
@@ -41456,7 +41591,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>324</v>
@@ -41568,7 +41703,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>326</v>
@@ -41680,7 +41815,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>329</v>
@@ -41792,7 +41927,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>332</v>
@@ -41904,7 +42039,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>336</v>
@@ -42016,7 +42151,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>337</v>
@@ -42130,7 +42265,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>338</v>
@@ -42246,7 +42381,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>339</v>
@@ -42358,7 +42493,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>342</v>
@@ -42470,7 +42605,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>345</v>
@@ -42584,7 +42719,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>349</v>
@@ -42698,7 +42833,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>353</v>
@@ -42812,13 +42947,13 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>75</v>
@@ -42843,10 +42978,10 @@
         <v>248</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -42926,7 +43061,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>273</v>
@@ -43038,7 +43173,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>274</v>
@@ -43152,7 +43287,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>275</v>
@@ -43268,7 +43403,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>276</v>
@@ -43380,7 +43515,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>279</v>
@@ -43494,14 +43629,14 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" t="s" s="2">
@@ -43520,16 +43655,16 @@
         <v>75</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43591,13 +43726,13 @@
         <v>75</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>75</v>
@@ -43608,7 +43743,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>287</v>
@@ -43720,7 +43855,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>291</v>
@@ -43832,7 +43967,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>292</v>
@@ -43946,7 +44081,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>293</v>
@@ -44062,7 +44197,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>294</v>
@@ -44176,7 +44311,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>300</v>
@@ -44290,7 +44425,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>305</v>
@@ -44402,7 +44537,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>309</v>
@@ -44514,7 +44649,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>310</v>
@@ -44628,7 +44763,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>311</v>
@@ -44744,7 +44879,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>312</v>
@@ -44856,7 +44991,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>317</v>
@@ -44970,7 +45105,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>321</v>
@@ -45082,7 +45217,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>324</v>
@@ -45194,7 +45329,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>326</v>
@@ -45306,7 +45441,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>329</v>
@@ -45418,7 +45553,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>332</v>
@@ -45530,7 +45665,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>336</v>
@@ -45642,7 +45777,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>337</v>
@@ -45756,7 +45891,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>338</v>
@@ -45872,7 +46007,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>339</v>
@@ -45984,7 +46119,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>342</v>
@@ -46096,7 +46231,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>345</v>
@@ -46210,7 +46345,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>349</v>
@@ -46324,7 +46459,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>353</v>
@@ -46438,13 +46573,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>75</v>
@@ -46469,10 +46604,10 @@
         <v>248</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
@@ -46552,7 +46687,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>273</v>
@@ -46664,7 +46799,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>274</v>
@@ -46778,7 +46913,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>275</v>
@@ -46894,7 +47029,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>276</v>
@@ -47006,7 +47141,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>279</v>
@@ -47120,14 +47255,14 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
-        <v>75</v>
+        <v>568</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" t="s" s="2">
@@ -47146,15 +47281,17 @@
         <v>75</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="N391" s="2"/>
+        <v>759</v>
+      </c>
+      <c r="N391" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O391" s="2"/>
       <c r="P391" t="s" s="2">
         <v>75</v>
@@ -47215,13 +47352,13 @@
         <v>75</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>371</v>
+        <v>721</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>75</v>
+        <v>574</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>753</v>
+        <v>575</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>75</v>
@@ -47232,7 +47369,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>287</v>
@@ -47344,7 +47481,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>291</v>
@@ -47456,7 +47593,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>292</v>
@@ -47570,7 +47707,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>293</v>
@@ -47686,7 +47823,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>294</v>
@@ -47800,7 +47937,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>300</v>
@@ -47914,7 +48051,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>305</v>
@@ -48026,7 +48163,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>309</v>
@@ -48138,7 +48275,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>310</v>
@@ -48252,7 +48389,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>311</v>
@@ -48368,7 +48505,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>312</v>
@@ -48480,7 +48617,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>317</v>
@@ -48594,7 +48731,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>321</v>
@@ -48706,7 +48843,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>324</v>
@@ -48818,7 +48955,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>326</v>
@@ -48930,7 +49067,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>329</v>
@@ -49042,7 +49179,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>332</v>
@@ -49154,7 +49291,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>336</v>
@@ -49266,7 +49403,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>337</v>
@@ -49380,7 +49517,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>338</v>
@@ -49496,7 +49633,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>339</v>
@@ -49608,7 +49745,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>342</v>
@@ -49720,7 +49857,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>345</v>
@@ -49834,7 +49971,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>349</v>
@@ -49948,7 +50085,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>353</v>
@@ -50062,20 +50199,20 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E417" s="2"/>
       <c r="F417" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G417" t="s" s="2">
         <v>84</v>
@@ -50093,10 +50230,10 @@
         <v>248</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -50176,7 +50313,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>273</v>
@@ -50288,7 +50425,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>274</v>
@@ -50402,7 +50539,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>275</v>
@@ -50518,7 +50655,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>276</v>
@@ -50630,7 +50767,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>279</v>
@@ -50744,14 +50881,14 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
-        <v>523</v>
+        <v>75</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" t="s" s="2">
@@ -50770,17 +50907,15 @@
         <v>75</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="N423" t="s" s="2">
-        <v>792</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="N423" s="2"/>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
         <v>75</v>
@@ -50841,13 +50976,13 @@
         <v>75</v>
       </c>
       <c r="AJ423" t="s" s="2">
-        <v>528</v>
+        <v>371</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>529</v>
+        <v>75</v>
       </c>
       <c r="AL423" t="s" s="2">
-        <v>530</v>
+        <v>798</v>
       </c>
       <c r="AM423" t="s" s="2">
         <v>75</v>
@@ -50858,7 +50993,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>287</v>
@@ -50970,7 +51105,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>291</v>
@@ -51082,7 +51217,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>292</v>
@@ -51196,7 +51331,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>293</v>
@@ -51312,7 +51447,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>294</v>
@@ -51426,7 +51561,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>300</v>
@@ -51540,7 +51675,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>305</v>
@@ -51652,7 +51787,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>309</v>
@@ -51764,7 +51899,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>310</v>
@@ -51878,7 +52013,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>311</v>
@@ -51994,7 +52129,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>312</v>
@@ -52106,7 +52241,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>317</v>
@@ -52220,7 +52355,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>321</v>
@@ -52332,7 +52467,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>324</v>
@@ -52444,7 +52579,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>326</v>
@@ -52556,7 +52691,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>329</v>
@@ -52668,7 +52803,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>332</v>
@@ -52780,7 +52915,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>336</v>
@@ -52892,7 +53027,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>337</v>
@@ -53006,7 +53141,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>338</v>
@@ -53122,7 +53257,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>339</v>
@@ -53234,7 +53369,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>342</v>
@@ -53346,7 +53481,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>345</v>
@@ -53460,7 +53595,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>349</v>
@@ -53574,7 +53709,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>353</v>
@@ -53688,24 +53823,26 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="C449" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C449" t="s" s="2">
+        <v>825</v>
+      </c>
       <c r="D449" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E449" s="2"/>
       <c r="F449" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G449" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H449" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I449" t="s" s="2">
         <v>75</v>
@@ -53714,20 +53851,16 @@
         <v>85</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>819</v>
+        <v>248</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="N449" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="O449" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="N449" s="2"/>
+      <c r="O449" s="2"/>
       <c r="P449" t="s" s="2">
         <v>75</v>
       </c>
@@ -53775,35 +53908,3663 @@
         <v>75</v>
       </c>
       <c r="AF449" t="s" s="2">
-        <v>818</v>
+        <v>266</v>
       </c>
       <c r="AG449" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH449" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI449" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ449" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN449" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="450" hidden="true">
+      <c r="A450" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="B450" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C450" s="2"/>
+      <c r="D450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E450" s="2"/>
+      <c r="F450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G450" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K450" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L450" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M450" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N450" s="2"/>
+      <c r="O450" s="2"/>
+      <c r="P450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q450" s="2"/>
+      <c r="R450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF450" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH450" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL450" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN450" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="451" hidden="true">
+      <c r="A451" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="B451" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C451" s="2"/>
+      <c r="D451" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E451" s="2"/>
+      <c r="F451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K451" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L451" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M451" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N451" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O451" s="2"/>
+      <c r="P451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q451" s="2"/>
+      <c r="R451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF451" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ451" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL451" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN451" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="452" hidden="true">
+      <c r="A452" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="B452" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C452" s="2"/>
+      <c r="D452" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E452" s="2"/>
+      <c r="F452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I452" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J452" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K452" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L452" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M452" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N452" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O452" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q452" s="2"/>
+      <c r="R452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF452" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ452" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL452" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN452" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="453" hidden="true">
+      <c r="A453" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="B453" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C453" s="2"/>
+      <c r="D453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E453" s="2"/>
+      <c r="F453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J453" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L453" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M453" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N453" s="2"/>
+      <c r="O453" s="2"/>
+      <c r="P453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q453" s="2"/>
+      <c r="R453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF453" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ453" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AK449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM449" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN449" t="s" s="2">
+      <c r="AK453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN453" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="454" hidden="true">
+      <c r="A454" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="B454" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C454" s="2"/>
+      <c r="D454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E454" s="2"/>
+      <c r="F454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G454" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J454" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K454" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L454" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M454" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N454" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O454" s="2"/>
+      <c r="P454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q454" s="2"/>
+      <c r="R454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF454" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH454" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ454" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM454" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN454" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="455" hidden="true">
+      <c r="A455" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="B455" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C455" s="2"/>
+      <c r="D455" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="E455" s="2"/>
+      <c r="F455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G455" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K455" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="L455" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="M455" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="N455" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="O455" s="2"/>
+      <c r="P455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q455" s="2"/>
+      <c r="R455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF455" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH455" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ455" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AK455" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL455" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN455" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="456" hidden="true">
+      <c r="A456" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="B456" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C456" s="2"/>
+      <c r="D456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E456" s="2"/>
+      <c r="F456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G456" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J456" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K456" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L456" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M456" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N456" s="2"/>
+      <c r="O456" s="2"/>
+      <c r="P456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q456" s="2"/>
+      <c r="R456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF456" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH456" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI456" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AJ456" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN456" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="457" hidden="true">
+      <c r="A457" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="B457" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C457" s="2"/>
+      <c r="D457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E457" s="2"/>
+      <c r="F457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G457" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K457" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L457" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M457" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N457" s="2"/>
+      <c r="O457" s="2"/>
+      <c r="P457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q457" s="2"/>
+      <c r="R457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF457" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH457" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL457" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM457" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN457" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="458" hidden="true">
+      <c r="A458" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="B458" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C458" s="2"/>
+      <c r="D458" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E458" s="2"/>
+      <c r="F458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K458" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L458" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M458" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N458" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O458" s="2"/>
+      <c r="P458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q458" s="2"/>
+      <c r="R458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF458" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ458" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL458" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM458" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN458" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="459" hidden="true">
+      <c r="A459" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="B459" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C459" s="2"/>
+      <c r="D459" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E459" s="2"/>
+      <c r="F459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I459" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J459" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K459" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L459" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M459" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N459" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O459" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q459" s="2"/>
+      <c r="R459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF459" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ459" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL459" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM459" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN459" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="460" hidden="true">
+      <c r="A460" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="B460" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C460" s="2"/>
+      <c r="D460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E460" s="2"/>
+      <c r="F460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G460" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J460" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K460" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L460" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M460" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N460" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O460" s="2"/>
+      <c r="P460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q460" s="2"/>
+      <c r="R460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X460" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y460" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Z460" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AA460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF460" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH460" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ460" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN460" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="461" hidden="true">
+      <c r="A461" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="B461" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C461" s="2"/>
+      <c r="D461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E461" s="2"/>
+      <c r="F461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G461" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J461" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K461" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L461" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M461" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N461" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O461" s="2"/>
+      <c r="P461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q461" s="2"/>
+      <c r="R461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF461" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH461" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ461" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN461" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="462" hidden="true">
+      <c r="A462" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="B462" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C462" s="2"/>
+      <c r="D462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E462" s="2"/>
+      <c r="F462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G462" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J462" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K462" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L462" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M462" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N462" s="2"/>
+      <c r="O462" s="2"/>
+      <c r="P462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q462" s="2"/>
+      <c r="R462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF462" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH462" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI462" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AJ462" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM462" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN462" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="463" hidden="true">
+      <c r="A463" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="B463" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C463" s="2"/>
+      <c r="D463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E463" s="2"/>
+      <c r="F463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G463" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K463" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L463" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M463" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N463" s="2"/>
+      <c r="O463" s="2"/>
+      <c r="P463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q463" s="2"/>
+      <c r="R463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF463" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH463" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL463" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN463" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="464" hidden="true">
+      <c r="A464" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="B464" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C464" s="2"/>
+      <c r="D464" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E464" s="2"/>
+      <c r="F464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K464" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L464" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M464" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N464" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O464" s="2"/>
+      <c r="P464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q464" s="2"/>
+      <c r="R464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF464" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ464" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL464" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM464" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN464" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="465" hidden="true">
+      <c r="A465" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="B465" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C465" s="2"/>
+      <c r="D465" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E465" s="2"/>
+      <c r="F465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I465" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J465" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K465" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L465" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M465" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N465" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O465" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q465" s="2"/>
+      <c r="R465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF465" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ465" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL465" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM465" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN465" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="466" hidden="true">
+      <c r="A466" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="B466" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C466" s="2"/>
+      <c r="D466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E466" s="2"/>
+      <c r="F466" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G466" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J466" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K466" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L466" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M466" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N466" s="2"/>
+      <c r="O466" s="2"/>
+      <c r="P466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q466" s="2"/>
+      <c r="R466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X466" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y466" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z466" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF466" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG466" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH466" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ466" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM466" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN466" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="467" hidden="true">
+      <c r="A467" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="B467" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C467" s="2"/>
+      <c r="D467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E467" s="2"/>
+      <c r="F467" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G467" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J467" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K467" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L467" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M467" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N467" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O467" s="2"/>
+      <c r="P467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q467" s="2"/>
+      <c r="R467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF467" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG467" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH467" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ467" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN467" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="468" hidden="true">
+      <c r="A468" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="B468" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C468" s="2"/>
+      <c r="D468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E468" s="2"/>
+      <c r="F468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G468" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J468" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K468" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L468" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M468" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N468" s="2"/>
+      <c r="O468" s="2"/>
+      <c r="P468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q468" s="2"/>
+      <c r="R468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF468" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH468" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ468" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM468" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN468" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="469" hidden="true">
+      <c r="A469" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="B469" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C469" s="2"/>
+      <c r="D469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E469" s="2"/>
+      <c r="F469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G469" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J469" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K469" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L469" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M469" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N469" s="2"/>
+      <c r="O469" s="2"/>
+      <c r="P469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q469" s="2"/>
+      <c r="R469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF469" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH469" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ469" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM469" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN469" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="470" hidden="true">
+      <c r="A470" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="B470" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C470" s="2"/>
+      <c r="D470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E470" s="2"/>
+      <c r="F470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G470" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J470" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K470" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L470" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M470" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N470" s="2"/>
+      <c r="O470" s="2"/>
+      <c r="P470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q470" s="2"/>
+      <c r="R470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF470" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH470" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ470" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM470" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN470" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="471" hidden="true">
+      <c r="A471" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="B471" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C471" s="2"/>
+      <c r="D471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E471" s="2"/>
+      <c r="F471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G471" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J471" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K471" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L471" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M471" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N471" s="2"/>
+      <c r="O471" s="2"/>
+      <c r="P471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q471" s="2"/>
+      <c r="R471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF471" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH471" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ471" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM471" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN471" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="472" hidden="true">
+      <c r="A472" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="B472" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C472" s="2"/>
+      <c r="D472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E472" s="2"/>
+      <c r="F472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G472" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J472" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K472" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L472" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M472" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N472" s="2"/>
+      <c r="O472" s="2"/>
+      <c r="P472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q472" s="2"/>
+      <c r="R472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF472" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH472" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI472" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ472" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM472" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN472" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="473" hidden="true">
+      <c r="A473" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="B473" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C473" s="2"/>
+      <c r="D473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E473" s="2"/>
+      <c r="F473" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G473" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K473" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L473" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M473" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N473" s="2"/>
+      <c r="O473" s="2"/>
+      <c r="P473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q473" s="2"/>
+      <c r="R473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF473" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG473" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH473" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL473" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM473" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN473" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="474" hidden="true">
+      <c r="A474" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="B474" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C474" s="2"/>
+      <c r="D474" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E474" s="2"/>
+      <c r="F474" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G474" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K474" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L474" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M474" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N474" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O474" s="2"/>
+      <c r="P474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q474" s="2"/>
+      <c r="R474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF474" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG474" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH474" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ474" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL474" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM474" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN474" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="475" hidden="true">
+      <c r="A475" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="B475" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C475" s="2"/>
+      <c r="D475" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E475" s="2"/>
+      <c r="F475" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G475" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I475" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J475" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K475" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L475" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M475" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N475" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O475" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q475" s="2"/>
+      <c r="R475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF475" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG475" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH475" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ475" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL475" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM475" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN475" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="476" hidden="true">
+      <c r="A476" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="B476" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C476" s="2"/>
+      <c r="D476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E476" s="2"/>
+      <c r="F476" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G476" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J476" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K476" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L476" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M476" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N476" s="2"/>
+      <c r="O476" s="2"/>
+      <c r="P476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q476" s="2"/>
+      <c r="R476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF476" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG476" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH476" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ476" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM476" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN476" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="477" hidden="true">
+      <c r="A477" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="B477" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C477" s="2"/>
+      <c r="D477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E477" s="2"/>
+      <c r="F477" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G477" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J477" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K477" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L477" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M477" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N477" s="2"/>
+      <c r="O477" s="2"/>
+      <c r="P477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q477" s="2"/>
+      <c r="R477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF477" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG477" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH477" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ477" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM477" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN477" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="478" hidden="true">
+      <c r="A478" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="B478" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C478" s="2"/>
+      <c r="D478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E478" s="2"/>
+      <c r="F478" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G478" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J478" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K478" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L478" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M478" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N478" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O478" s="2"/>
+      <c r="P478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q478" s="2"/>
+      <c r="R478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF478" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG478" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH478" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ478" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN478" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="479" hidden="true">
+      <c r="A479" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="B479" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C479" s="2"/>
+      <c r="D479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E479" s="2"/>
+      <c r="F479" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G479" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J479" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K479" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L479" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M479" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N479" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O479" s="2"/>
+      <c r="P479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q479" s="2"/>
+      <c r="R479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF479" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG479" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH479" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ479" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN479" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="480" hidden="true">
+      <c r="A480" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="B480" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C480" s="2"/>
+      <c r="D480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E480" s="2"/>
+      <c r="F480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G480" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J480" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K480" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L480" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M480" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N480" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O480" s="2"/>
+      <c r="P480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q480" s="2"/>
+      <c r="R480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF480" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AG480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH480" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN480" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="481" hidden="true">
+      <c r="A481" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="B481" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="C481" s="2"/>
+      <c r="D481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E481" s="2"/>
+      <c r="F481" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G481" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J481" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K481" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="L481" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M481" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="N481" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="O481" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="P481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q481" s="2"/>
+      <c r="R481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF481" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="AG481" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH481" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ481" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN481" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN449">
+  <autoFilter ref="A1:AN481">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -53813,7 +57574,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI448">
+  <conditionalFormatting sqref="A2:AI480">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17191" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17191" uniqueCount="867">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2588,12 +2588,6 @@
   </si>
   <si>
     <t>Genotype</t>
-  </si>
-  <si>
-    <t>A finding that a patient has a specific genotype.</t>
-  </si>
-  <si>
-    <t>Defines those properties that are common for all findings of genetic characteristics - namely genotype, haplotype and any of the types of variants.</t>
   </si>
   <si>
     <t>Bundle.entry:hla-multi.search</t>
@@ -54522,7 +54516,7 @@
         <v>84</v>
       </c>
       <c r="H455" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I455" t="s" s="2">
         <v>75</v>
@@ -54537,10 +54531,10 @@
         <v>835</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" t="s" s="2">
@@ -54619,7 +54613,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>287</v>
@@ -54731,7 +54725,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>291</v>
@@ -54843,7 +54837,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>292</v>
@@ -54957,7 +54951,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>293</v>
@@ -55073,7 +55067,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>294</v>
@@ -55187,7 +55181,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>300</v>
@@ -55301,7 +55295,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>305</v>
@@ -55413,7 +55407,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>309</v>
@@ -55525,7 +55519,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>310</v>
@@ -55639,7 +55633,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>311</v>
@@ -55755,7 +55749,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>312</v>
@@ -55867,7 +55861,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>317</v>
@@ -55981,7 +55975,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>321</v>
@@ -56093,7 +56087,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>324</v>
@@ -56205,7 +56199,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>326</v>
@@ -56317,7 +56311,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>329</v>
@@ -56429,7 +56423,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>332</v>
@@ -56541,7 +56535,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>336</v>
@@ -56653,7 +56647,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>337</v>
@@ -56767,7 +56761,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>338</v>
@@ -56883,7 +56877,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>339</v>
@@ -56995,7 +56989,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>342</v>
@@ -57107,7 +57101,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>345</v>
@@ -57221,7 +57215,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>349</v>
@@ -57335,7 +57329,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>353</v>
@@ -57449,10 +57443,10 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" t="s" s="2">
@@ -57475,19 +57469,19 @@
         <v>85</v>
       </c>
       <c r="K481" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="L481" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="M481" t="s" s="2">
         <v>864</v>
       </c>
-      <c r="L481" t="s" s="2">
+      <c r="N481" t="s" s="2">
         <v>865</v>
       </c>
-      <c r="M481" t="s" s="2">
+      <c r="O481" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="N481" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="O481" t="s" s="2">
-        <v>868</v>
       </c>
       <c r="P481" t="s" s="2">
         <v>75</v>
@@ -57536,7 +57530,7 @@
         <v>75</v>
       </c>
       <c r="AF481" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AG481" t="s" s="2">
         <v>76</v>
